--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어4글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,14 +476,164 @@
           <t>상분지도, 「똥도 핥을 놈」이라는 뜻으로, 남에게 아첨(阿諂)하여 부끄러운 짓도 꺼려하지 않는 사람을 이르는 말.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20221220</t>
-        </is>
+      <c r="D2" t="n">
+        <v>20221220</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>08시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>磨斧作針</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>용사비등</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">마부작침, </t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>07시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>君臣有義</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>종두득두</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>군신유의, 오륜의 하나 임금과 신하 사이에 의리가 있어야 함</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>07시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>螳螂之斧</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>당랑지부, 
+「사마귀가 넓적한 앞다리를 쳐드는 모습이 마치 도끼를 휘두르는 것 같다」
+ 자기 힘을 생각지 않고 강적 앞에서 분수없이 날뛰는 것에 비유해서 씀</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>08시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>嘗糞之徒</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>득로지탄</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>상분지도, 
+「똥도 핥을 놈」
+ 남에게 아첨하여 부끄러운 짓도 꺼려하지 않는 사람을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>08시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>安分知足</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>상분지족</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>안분지족, 자기 분수에 만족하여 다른 데 마음을 두지 아니함</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>08시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>衛正斥邪</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>위정척사, 조선 시대 후기에, 정학, 정도로서의 주자학을 지키고, 사학, 사도로서의 천주교를 물리치려던 주장</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20221221</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>08시 04분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어4글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,14 +626,67 @@
           <t>위정척사, 조선 시대 후기에, 정학, 정도로서의 주자학을 지키고, 사학, 사도로서의 천주교를 물리치려던 주장</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20221221</t>
-        </is>
+      <c r="D8" t="n">
+        <v>20221221</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>08시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>敝袍破笠</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>금란지계</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>폐포파립| 
+「해진 옷과 부러진 갓」이란 뜻으로, 너절하고 구차한 차림새를 말함</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>19시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>麥秀之歎</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>안분지족</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>맥수지탄| 
+「나무가 고요하고자 하나 바람이 그치지 않는다」
+ 부모에게 효도를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20230106</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>19시 33분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어4글자.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,14 +679,66 @@
  부모에게 효도를 다하려고 생각할 때에는 이미 돌아가셔서 그 뜻을 이룰 수 없음을 이르는 말</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20230106</t>
-        </is>
+      <c r="D10" t="n">
+        <v>20230106</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>19시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>生口不網</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>초미지급</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>생구불망:가난하지만 그럭저럭 먹고 살 수 있음</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20230124</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>05시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>尸位素餐</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>개세지재</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>시위소찬 : 
+「재덕이나 공적도 없이 높은 자리에 앉아 녹만 받는다」
+자기 직책을 다하지 않음을 이르는 말</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20230124</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>05시 13분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어4글자.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_복습_한자어4글자.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,14 +731,39 @@
 자기 직책을 다하지 않음을 이르는 말</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20230124</t>
-        </is>
+      <c r="D12" t="n">
+        <v>20230124</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>05시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>隱忍自重</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>전전불매</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>은인자중: 밖으로 드러내지 아니하고 참고 감추어 몸가짐을 신중히 함</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20230127</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>08시 02분</t>
         </is>
       </c>
     </row>
